--- a/Assets/StatTable.xlsx
+++ b/Assets/StatTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProject\ShadowsOfHuntshire\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9C0CC2-1D3E-4E31-AA85-506FFA7896AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBB6269-9DDF-4923-AA6A-BB7544883C39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8F7BB208-E0CD-49C9-B2DA-F58E0459B174}"/>
   </bookViews>
@@ -252,12 +252,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -576,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974DC328-D1FF-4833-BC5C-D56949842991}">
   <dimension ref="C3:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,11 +589,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
       <c r="X3" s="2" t="s">
         <v>31</v>
       </c>
@@ -626,13 +625,13 @@
       <c r="L4" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P4" s="5" t="s">
         <v>59</v>
       </c>
       <c r="T4" t="s">
@@ -671,9 +670,9 @@
         <v>6</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
       <c r="T5">
         <f>ABS($F5-10)</f>
         <v>12</v>
@@ -715,9 +714,9 @@
         <f>AVERAGE($H$5:$H6)</f>
         <v>4</v>
       </c>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
       <c r="T6">
         <f t="shared" ref="T6:T21" si="0">ABS($F6-10)</f>
         <v>3</v>
@@ -771,11 +770,11 @@
         <f>AVERAGE($H$5:$H7)</f>
         <v>5</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="N7" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
       <c r="T7">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -829,9 +828,9 @@
         <f>AVERAGE($H$5:$H8)</f>
         <v>4.25</v>
       </c>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
       <c r="T8">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -885,15 +884,15 @@
         <f>AVERAGE($H$5:$H9)</f>
         <v>5.4</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="4">
         <f>J9+(($C9*J$26*2)/COUNT(F$5:F9))</f>
         <v>8.8000000000000007</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="4">
         <f>K9+(($C9*K$26*2)/COUNT(G$5:G9))</f>
         <v>10</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="4">
         <f>L9+(($C9*L$26*2)/COUNT(H$5:H9))</f>
         <v>5.4</v>
       </c>
@@ -930,7 +929,7 @@
         <v>16</v>
       </c>
       <c r="F10">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G10">
         <v>6</v>
@@ -940,7 +939,7 @@
       </c>
       <c r="J10" s="3">
         <f>AVERAGE($F$5:$F10)</f>
-        <v>10</v>
+        <v>9.6666666666666661</v>
       </c>
       <c r="K10" s="3">
         <f>AVERAGE($G$5:$G10)</f>
@@ -950,21 +949,21 @@
         <f>AVERAGE($H$5:$H10)</f>
         <v>6</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="4">
         <f>J10+(($C10*J$26*2)/COUNT(F$5:F10))</f>
-        <v>9.6666666666666661</v>
-      </c>
-      <c r="O10" s="5">
+        <v>9.3666666666666654</v>
+      </c>
+      <c r="O10" s="4">
         <f>K10+(($C10*K$26*2)/COUNT(G$5:G10))</f>
-        <v>9.0333333333333332</v>
-      </c>
-      <c r="P10" s="5">
+        <v>9.1000000000000014</v>
+      </c>
+      <c r="P10" s="4">
         <f>L10+(($C10*L$26*2)/COUNT(H$5:H10))</f>
-        <v>5.9333333333333336</v>
+        <v>5.7666666666666666</v>
       </c>
       <c r="T10">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U10">
         <f t="shared" si="1"/>
@@ -976,7 +975,7 @@
       </c>
       <c r="X10" s="3">
         <f>AVERAGE(T$5:T10)</f>
-        <v>6</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="Y10" s="3">
         <f>AVERAGE(U$5:U10)</f>
@@ -998,49 +997,49 @@
         <v>10</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H11">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1">
         <f>AVERAGE($F$5:$F11)</f>
-        <v>10</v>
+        <v>9.7142857142857135</v>
       </c>
       <c r="K11" s="1">
         <f>AVERAGE($G$5:$G11)</f>
-        <v>8.2857142857142865</v>
+        <v>10.142857142857142</v>
       </c>
       <c r="L11" s="1">
         <f>AVERAGE($H$5:$H11)</f>
-        <v>8</v>
-      </c>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
       <c r="T11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U11">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V11">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="X11" s="1">
         <f>AVERAGE(T$5:T11)</f>
-        <v>5.1428571428571432</v>
+        <v>4.8571428571428568</v>
       </c>
       <c r="Y11" s="1">
         <f>AVERAGE(U$5:U11)</f>
-        <v>4</v>
+        <v>3.5714285714285716</v>
       </c>
       <c r="Z11" s="1">
         <f>AVERAGE(V$5:V11)</f>
-        <v>4.8571428571428568</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="3:26" x14ac:dyDescent="0.25">
@@ -1054,34 +1053,34 @@
         <v>7</v>
       </c>
       <c r="G12">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H12">
         <v>18</v>
       </c>
       <c r="J12" s="3">
         <f>AVERAGE($F$5:$F12)</f>
-        <v>9.625</v>
+        <v>9.375</v>
       </c>
       <c r="K12" s="3">
         <f>AVERAGE($G$5:$G12)</f>
-        <v>9.5</v>
+        <v>10.625</v>
       </c>
       <c r="L12" s="3">
         <f>AVERAGE($H$5:$H12)</f>
-        <v>9.25</v>
-      </c>
-      <c r="N12" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="N12" s="4">
         <f>J12+(($C12*J$26*2)/COUNT(F$5:F12))</f>
-        <v>9</v>
-      </c>
-      <c r="O12" s="5">
+        <v>8.8125</v>
+      </c>
+      <c r="O12" s="4">
         <f>K12+(($C12*K$26*2)/COUNT(G$5:G12))</f>
-        <v>8.9375</v>
-      </c>
-      <c r="P12" s="5">
+        <v>10.1875</v>
+      </c>
+      <c r="P12" s="4">
         <f>L12+(($C12*L$26*2)/COUNT(H$5:H12))</f>
-        <v>9.125</v>
+        <v>7.0625</v>
       </c>
       <c r="T12">
         <f t="shared" si="0"/>
@@ -1089,7 +1088,7 @@
       </c>
       <c r="U12">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="V12">
         <f t="shared" si="2"/>
@@ -1097,15 +1096,15 @@
       </c>
       <c r="X12" s="3">
         <f>AVERAGE(T$5:T12)</f>
-        <v>4.875</v>
+        <v>4.625</v>
       </c>
       <c r="Y12" s="3">
         <f>AVERAGE(U$5:U12)</f>
-        <v>4.5</v>
+        <v>3.625</v>
       </c>
       <c r="Z12" s="3">
         <f>AVERAGE(V$5:V12)</f>
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="13" spans="3:26" x14ac:dyDescent="0.25">
@@ -1126,27 +1125,27 @@
       </c>
       <c r="J13" s="3">
         <f>AVERAGE($F$5:$F13)</f>
-        <v>9</v>
+        <v>8.7777777777777786</v>
       </c>
       <c r="K13" s="3">
         <f>AVERAGE($G$5:$G13)</f>
-        <v>9.5555555555555554</v>
+        <v>10.555555555555555</v>
       </c>
       <c r="L13" s="3">
         <f>AVERAGE($H$5:$H13)</f>
-        <v>10.888888888888889</v>
-      </c>
-      <c r="N13" s="5">
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="N13" s="4">
         <f>J13+(($C13*J$26*2)/COUNT(F$5:F13))</f>
-        <v>8</v>
-      </c>
-      <c r="O13" s="5">
+        <v>7.8777777777777782</v>
+      </c>
+      <c r="O13" s="4">
         <f>K13+(($C13*K$26*2)/COUNT(G$5:G13))</f>
-        <v>8.655555555555555</v>
-      </c>
-      <c r="P13" s="5">
+        <v>9.8555555555555561</v>
+      </c>
+      <c r="P13" s="4">
         <f>L13+(($C13*L$26*2)/COUNT(H$5:H13))</f>
-        <v>10.68888888888889</v>
+        <v>8.6333333333333346</v>
       </c>
       <c r="T13">
         <f t="shared" si="0"/>
@@ -1162,15 +1161,15 @@
       </c>
       <c r="X13" s="3">
         <f>AVERAGE(T$5:T13)</f>
-        <v>5</v>
+        <v>4.7777777777777777</v>
       </c>
       <c r="Y13" s="3">
         <f>AVERAGE(U$5:U13)</f>
-        <v>4</v>
+        <v>3.2222222222222223</v>
       </c>
       <c r="Z13" s="3">
         <f>AVERAGE(V$5:V13)</f>
-        <v>6.2222222222222223</v>
+        <v>5.5555555555555554</v>
       </c>
     </row>
     <row r="14" spans="3:26" x14ac:dyDescent="0.25">
@@ -1187,31 +1186,31 @@
         <v>3</v>
       </c>
       <c r="H14">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J14" s="3">
         <f>AVERAGE($F$5:$F14)</f>
-        <v>9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="K14" s="3">
         <f>AVERAGE($G$5:$G14)</f>
-        <v>8.9</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="L14" s="3">
         <f>AVERAGE($H$5:$H14)</f>
-        <v>12.8</v>
-      </c>
-      <c r="N14" s="5">
+        <v>10.4</v>
+      </c>
+      <c r="N14" s="4">
         <f>J14+(($C14*J$26*2)/COUNT(F$5:F14))</f>
-        <v>7.7</v>
-      </c>
-      <c r="O14" s="5">
+        <v>7.6300000000000008</v>
+      </c>
+      <c r="O14" s="4">
         <f>K14+(($C14*K$26*2)/COUNT(G$5:G14))</f>
-        <v>7.73</v>
-      </c>
-      <c r="P14" s="5">
+        <v>8.89</v>
+      </c>
+      <c r="P14" s="4">
         <f>L14+(($C14*L$26*2)/COUNT(H$5:H14))</f>
-        <v>12.540000000000001</v>
+        <v>9.49</v>
       </c>
       <c r="T14">
         <f t="shared" si="0"/>
@@ -1223,19 +1222,19 @@
       </c>
       <c r="V14">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="X14" s="3">
         <f>AVERAGE(T$5:T14)</f>
-        <v>4.5999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="Y14" s="3">
         <f>AVERAGE(U$5:U14)</f>
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="Z14" s="3">
         <f>AVERAGE(V$5:V14)</f>
-        <v>7.6</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="3:26" x14ac:dyDescent="0.25">
@@ -1256,27 +1255,27 @@
       </c>
       <c r="J15" s="3">
         <f>AVERAGE($F$5:$F15)</f>
-        <v>10</v>
+        <v>9.8181818181818183</v>
       </c>
       <c r="K15" s="3">
         <f>AVERAGE($G$5:$G15)</f>
-        <v>8.8181818181818183</v>
+        <v>9.6363636363636367</v>
       </c>
       <c r="L15" s="3">
         <f>AVERAGE($H$5:$H15)</f>
-        <v>12.363636363636363</v>
-      </c>
-      <c r="N15" s="5">
+        <v>10.181818181818182</v>
+      </c>
+      <c r="N15" s="4">
         <f>J15+(($C15*J$26*2)/COUNT(F$5:F15))</f>
-        <v>8.454545454545455</v>
-      </c>
-      <c r="O15" s="5">
+        <v>8.4272727272727277</v>
+      </c>
+      <c r="O15" s="4">
         <f>K15+(($C15*K$26*2)/COUNT(G$5:G15))</f>
-        <v>7.4272727272727277</v>
-      </c>
-      <c r="P15" s="5">
+        <v>8.5545454545454547</v>
+      </c>
+      <c r="P15" s="4">
         <f>L15+(($C15*L$26*2)/COUNT(H$5:H15))</f>
-        <v>12.054545454545455</v>
+        <v>9.1</v>
       </c>
       <c r="T15">
         <f t="shared" si="0"/>
@@ -1292,15 +1291,15 @@
       </c>
       <c r="X15" s="3">
         <f>AVERAGE(T$5:T15)</f>
-        <v>5.0909090909090908</v>
+        <v>4.9090909090909092</v>
       </c>
       <c r="Y15" s="3">
         <f>AVERAGE(U$5:U15)</f>
-        <v>4.0909090909090908</v>
+        <v>3.4545454545454546</v>
       </c>
       <c r="Z15" s="3">
         <f>AVERAGE(V$5:V15)</f>
-        <v>7.0909090909090908</v>
+        <v>5.6363636363636367</v>
       </c>
     </row>
     <row r="16" spans="3:26" x14ac:dyDescent="0.25">
@@ -1321,27 +1320,27 @@
       </c>
       <c r="J16" s="3">
         <f>AVERAGE($F$5:$F16)</f>
-        <v>9.8333333333333339</v>
+        <v>9.6666666666666661</v>
       </c>
       <c r="K16" s="3">
         <f>AVERAGE($G$5:$G16)</f>
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="L16" s="3">
         <f>AVERAGE($H$5:$H16)</f>
-        <v>12</v>
-      </c>
-      <c r="N16" s="5">
+        <v>10</v>
+      </c>
+      <c r="N16" s="4">
         <f>J16+(($C16*J$26*2)/COUNT(F$5:F16))</f>
-        <v>8.0833333333333339</v>
-      </c>
-      <c r="O16" s="5">
+        <v>8.091666666666665</v>
+      </c>
+      <c r="O16" s="4">
         <f>K16+(($C16*K$26*2)/COUNT(G$5:G16))</f>
-        <v>8.1750000000000007</v>
-      </c>
-      <c r="P16" s="5">
+        <v>9.2750000000000004</v>
+      </c>
+      <c r="P16" s="4">
         <f>L16+(($C16*L$26*2)/COUNT(H$5:H16))</f>
-        <v>11.65</v>
+        <v>8.7750000000000004</v>
       </c>
       <c r="T16">
         <f t="shared" si="0"/>
@@ -1357,15 +1356,15 @@
       </c>
       <c r="X16" s="3">
         <f>AVERAGE(T$5:T16)</f>
-        <v>4.833333333333333</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="Y16" s="3">
         <f>AVERAGE(U$5:U16)</f>
-        <v>4.583333333333333</v>
+        <v>4</v>
       </c>
       <c r="Z16" s="3">
         <f>AVERAGE(V$5:V16)</f>
-        <v>6.666666666666667</v>
+        <v>5.333333333333333</v>
       </c>
     </row>
     <row r="17" spans="3:26" x14ac:dyDescent="0.25">
@@ -1386,19 +1385,19 @@
       </c>
       <c r="J17" s="1">
         <f>AVERAGE($F$5:$F17)</f>
-        <v>9.6923076923076916</v>
+        <v>9.5384615384615383</v>
       </c>
       <c r="K17" s="1">
         <f>AVERAGE($G$5:$G17)</f>
-        <v>9.3076923076923084</v>
+        <v>10</v>
       </c>
       <c r="L17" s="1">
         <f>AVERAGE($H$5:$H17)</f>
-        <v>12.615384615384615</v>
-      </c>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
+        <v>10.76923076923077</v>
+      </c>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
       <c r="T17">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1413,15 +1412,15 @@
       </c>
       <c r="X17" s="1">
         <f>AVERAGE(T$5:T17)</f>
-        <v>4.615384615384615</v>
+        <v>4.4615384615384617</v>
       </c>
       <c r="Y17" s="1">
         <f>AVERAGE(U$5:U17)</f>
-        <v>4.6923076923076925</v>
+        <v>4.1538461538461542</v>
       </c>
       <c r="Z17" s="1">
         <f>AVERAGE(V$5:V17)</f>
-        <v>6.9230769230769234</v>
+        <v>5.6923076923076925</v>
       </c>
     </row>
     <row r="18" spans="3:26" x14ac:dyDescent="0.25">
@@ -1442,27 +1441,27 @@
       </c>
       <c r="J18" s="3">
         <f>AVERAGE($F$5:$F18)</f>
-        <v>10.142857142857142</v>
+        <v>10</v>
       </c>
       <c r="K18" s="3">
         <f>AVERAGE($G$5:$G18)</f>
-        <v>9</v>
+        <v>9.6428571428571423</v>
       </c>
       <c r="L18" s="3">
         <f>AVERAGE($H$5:$H18)</f>
-        <v>12.357142857142858</v>
-      </c>
-      <c r="N18" s="5">
+        <v>10.642857142857142</v>
+      </c>
+      <c r="N18" s="4">
         <f>J18+(($C18*J$26*2)/COUNT(F$5:F18))</f>
-        <v>8.3571428571428559</v>
-      </c>
-      <c r="O18" s="5">
+        <v>8.3928571428571423</v>
+      </c>
+      <c r="O18" s="4">
         <f>K18+(($C18*K$26*2)/COUNT(G$5:G18))</f>
-        <v>7.3928571428571423</v>
-      </c>
-      <c r="P18" s="5">
+        <v>8.3928571428571423</v>
+      </c>
+      <c r="P18" s="4">
         <f>L18+(($C18*L$26*2)/COUNT(H$5:H18))</f>
-        <v>12</v>
+        <v>9.3928571428571423</v>
       </c>
       <c r="T18">
         <f t="shared" si="0"/>
@@ -1478,15 +1477,15 @@
       </c>
       <c r="X18" s="3">
         <f>AVERAGE(T$5:T18)</f>
-        <v>4.7142857142857144</v>
+        <v>4.5714285714285712</v>
       </c>
       <c r="Y18" s="3">
         <f>AVERAGE(U$5:U18)</f>
-        <v>4.7142857142857144</v>
+        <v>4.2142857142857144</v>
       </c>
       <c r="Z18" s="3">
         <f>AVERAGE(V$5:V18)</f>
-        <v>6.5</v>
+        <v>5.3571428571428568</v>
       </c>
     </row>
     <row r="19" spans="3:26" x14ac:dyDescent="0.25">
@@ -1507,19 +1506,19 @@
       </c>
       <c r="J19" s="1">
         <f>AVERAGE($F$5:$F19)</f>
-        <v>10.266666666666667</v>
+        <v>10.133333333333333</v>
       </c>
       <c r="K19" s="1">
         <f>AVERAGE($G$5:$G19)</f>
-        <v>9.1333333333333329</v>
+        <v>9.7333333333333325</v>
       </c>
       <c r="L19" s="1">
         <f>AVERAGE($H$5:$H19)</f>
-        <v>11.933333333333334</v>
-      </c>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
+        <v>10.333333333333334</v>
+      </c>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
       <c r="T19">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1534,15 +1533,15 @@
       </c>
       <c r="X19" s="1">
         <f>AVERAGE(T$5:T19)</f>
-        <v>4.5333333333333332</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="Y19" s="1">
         <f>AVERAGE(U$5:U19)</f>
-        <v>4.4666666666666668</v>
+        <v>4</v>
       </c>
       <c r="Z19" s="1">
         <f>AVERAGE(V$5:V19)</f>
-        <v>6.333333333333333</v>
+        <v>5.2666666666666666</v>
       </c>
     </row>
     <row r="20" spans="3:26" x14ac:dyDescent="0.25">
@@ -1563,27 +1562,27 @@
       </c>
       <c r="J20" s="3">
         <f>AVERAGE($F$5:$F20)</f>
-        <v>9.75</v>
+        <v>9.625</v>
       </c>
       <c r="K20" s="3">
         <f>AVERAGE($G$5:$G20)</f>
-        <v>8.75</v>
+        <v>9.3125</v>
       </c>
       <c r="L20" s="3">
         <f>AVERAGE($H$5:$H20)</f>
-        <v>11.5625</v>
-      </c>
-      <c r="N20" s="5">
+        <v>10.0625</v>
+      </c>
+      <c r="N20" s="4">
         <f>J20+(($C20*J$26*2)/COUNT(F$5:F20))</f>
-        <v>7.6875</v>
-      </c>
-      <c r="O20" s="5">
+        <v>7.7687499999999998</v>
+      </c>
+      <c r="O20" s="4">
         <f>K20+(($C20*K$26*2)/COUNT(G$5:G20))</f>
-        <v>6.8937499999999998</v>
-      </c>
-      <c r="P20" s="5">
+        <v>7.8687500000000004</v>
+      </c>
+      <c r="P20" s="4">
         <f>L20+(($C20*L$26*2)/COUNT(H$5:H20))</f>
-        <v>11.15</v>
+        <v>8.6187500000000004</v>
       </c>
       <c r="T20">
         <f t="shared" si="0"/>
@@ -1599,15 +1598,15 @@
       </c>
       <c r="X20" s="3">
         <f>AVERAGE(T$5:T20)</f>
-        <v>4.75</v>
+        <v>4.625</v>
       </c>
       <c r="Y20" s="3">
         <f>AVERAGE(U$5:U20)</f>
-        <v>4.625</v>
+        <v>4.1875</v>
       </c>
       <c r="Z20" s="3">
         <f>AVERAGE(V$5:V20)</f>
-        <v>6.1875</v>
+        <v>5.1875</v>
       </c>
     </row>
     <row r="21" spans="3:26" x14ac:dyDescent="0.25">
@@ -1628,27 +1627,27 @@
       </c>
       <c r="J21" s="3">
         <f>AVERAGE($F$5:$F21)</f>
-        <v>10.176470588235293</v>
+        <v>10.058823529411764</v>
       </c>
       <c r="K21" s="3">
         <f>AVERAGE($G$5:$G21)</f>
-        <v>9.7058823529411757</v>
+        <v>10.235294117647058</v>
       </c>
       <c r="L21" s="3">
         <f>AVERAGE($H$5:$H21)</f>
-        <v>11.647058823529411</v>
-      </c>
-      <c r="N21" s="5">
+        <v>10.235294117647058</v>
+      </c>
+      <c r="N21" s="4">
         <f>J21+(($C21*J$26*2)/COUNT(F$5:F21))</f>
-        <v>8</v>
-      </c>
-      <c r="O21" s="5">
+        <v>8.1</v>
+      </c>
+      <c r="O21" s="4">
         <f>K21+(($C21*K$26*2)/COUNT(G$5:G21))</f>
-        <v>7.7470588235294109</v>
-      </c>
-      <c r="P21" s="5">
+        <v>8.7117647058823522</v>
+      </c>
+      <c r="P21" s="4">
         <f>L21+(($C21*L$26*2)/COUNT(H$5:H21))</f>
-        <v>11.211764705882352</v>
+        <v>8.7117647058823522</v>
       </c>
       <c r="T21">
         <f t="shared" si="0"/>
@@ -1664,15 +1663,15 @@
       </c>
       <c r="X21" s="3">
         <f>AVERAGE(T$5:T21)</f>
-        <v>4.882352941176471</v>
+        <v>4.7647058823529411</v>
       </c>
       <c r="Y21" s="3">
         <f>AVERAGE(U$5:U21)</f>
-        <v>5.2352941176470589</v>
+        <v>4.8235294117647056</v>
       </c>
       <c r="Z21" s="3">
         <f>AVERAGE(V$5:V21)</f>
-        <v>6</v>
+        <v>5.0588235294117645</v>
       </c>
     </row>
     <row r="24" spans="3:26" x14ac:dyDescent="0.25">
@@ -1716,17 +1715,17 @@
       <c r="H26">
         <v>-2</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="3">
         <f>AVERAGE(F26:F45)</f>
-        <v>-0.5</v>
-      </c>
-      <c r="K26" s="4">
+        <v>-0.45</v>
+      </c>
+      <c r="K26" s="3">
         <f t="shared" ref="K26:L26" si="3">AVERAGE(G26:G45)</f>
-        <v>-0.45</v>
-      </c>
-      <c r="L26" s="4">
-        <f t="shared" si="3"/>
-        <v>-0.1</v>
+        <v>-0.35</v>
+      </c>
+      <c r="L26" s="3">
+        <f>AVERAGE(H26:H45)</f>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="27" spans="3:26" x14ac:dyDescent="0.25">
@@ -1765,10 +1764,10 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="3:26" x14ac:dyDescent="0.25">
@@ -1846,13 +1845,13 @@
         <v>45</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="4:8" x14ac:dyDescent="0.25">
@@ -1866,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="37" spans="4:8" x14ac:dyDescent="0.25">
@@ -1880,7 +1879,7 @@
         <v>-1</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="4:8" x14ac:dyDescent="0.25">

--- a/Assets/StatTable.xlsx
+++ b/Assets/StatTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProject\ShadowsOfHuntshire\Assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordan/Desktop/ShadowsOfHuntshire/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBB6269-9DDF-4923-AA6A-BB7544883C39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD063502-2AED-9645-8062-504E1574012E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8F7BB208-E0CD-49C9-B2DA-F58E0459B174}"/>
+    <workbookView xWindow="-19200" yWindow="5460" windowWidth="20440" windowHeight="12580" xr2:uid="{8F7BB208-E0CD-49C9-B2DA-F58E0459B174}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
   <si>
     <t>Time</t>
   </si>
@@ -211,6 +220,36 @@
   </si>
   <si>
     <t>(All values should be &lt; 9!)</t>
+  </si>
+  <si>
+    <t>A Scurrying Racket 1</t>
+  </si>
+  <si>
+    <t>A Scurrying Racket 2</t>
+  </si>
+  <si>
+    <t>Deepening Chill 1</t>
+  </si>
+  <si>
+    <t>Deepening Chill 2</t>
+  </si>
+  <si>
+    <t>Unknown Chuckle 1</t>
+  </si>
+  <si>
+    <t>Unknown Chuckle 2</t>
+  </si>
+  <si>
+    <t>Withered Petals 1</t>
+  </si>
+  <si>
+    <t>Withered Petals 2</t>
+  </si>
+  <si>
+    <t>Liquid Yearning 1</t>
+  </si>
+  <si>
+    <t>Liquid Yearning 2</t>
   </si>
 </sst>
 </file>
@@ -573,22 +612,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974DC328-D1FF-4833-BC5C-D56949842991}">
-  <dimension ref="C3:Z45"/>
+  <dimension ref="C3:Z55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="10" max="12" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="10" max="12" width="12.5" customWidth="1"/>
     <col min="14" max="14" width="9" customWidth="1"/>
-    <col min="15" max="15" width="9.28515625" customWidth="1"/>
-    <col min="16" max="16" width="10.28515625" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:26" x14ac:dyDescent="0.2">
       <c r="N3" s="5" t="s">
         <v>60</v>
       </c>
@@ -600,7 +639,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -653,7 +692,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C5">
         <v>0</v>
       </c>
@@ -686,7 +725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C6">
         <v>0</v>
       </c>
@@ -742,7 +781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C7">
         <v>0</v>
       </c>
@@ -800,7 +839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C8">
         <v>0</v>
       </c>
@@ -856,7 +895,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="9" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C9">
         <v>0</v>
       </c>
@@ -921,7 +960,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="10" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C10">
         <v>2</v>
       </c>
@@ -951,15 +990,15 @@
       </c>
       <c r="N10" s="4">
         <f>J10+(($C10*J$26*2)/COUNT(F$5:F10))</f>
-        <v>9.3666666666666654</v>
+        <v>9.5111111111111111</v>
       </c>
       <c r="O10" s="4">
         <f>K10+(($C10*K$26*2)/COUNT(G$5:G10))</f>
-        <v>9.1000000000000014</v>
+        <v>9.1555555555555568</v>
       </c>
       <c r="P10" s="4">
         <f>L10+(($C10*L$26*2)/COUNT(H$5:H10))</f>
-        <v>5.7666666666666666</v>
+        <v>5.8666666666666663</v>
       </c>
       <c r="T10">
         <f t="shared" si="0"/>
@@ -986,7 +1025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C11">
         <v>5</v>
       </c>
@@ -1042,7 +1081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C12">
         <v>5</v>
       </c>
@@ -1072,15 +1111,15 @@
       </c>
       <c r="N12" s="4">
         <f>J12+(($C12*J$26*2)/COUNT(F$5:F12))</f>
-        <v>8.8125</v>
+        <v>9.0833333333333339</v>
       </c>
       <c r="O12" s="4">
         <f>K12+(($C12*K$26*2)/COUNT(G$5:G12))</f>
-        <v>10.1875</v>
+        <v>10.291666666666666</v>
       </c>
       <c r="P12" s="4">
         <f>L12+(($C12*L$26*2)/COUNT(H$5:H12))</f>
-        <v>7.0625</v>
+        <v>7.25</v>
       </c>
       <c r="T12">
         <f t="shared" si="0"/>
@@ -1107,7 +1146,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="13" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C13">
         <v>9</v>
       </c>
@@ -1137,15 +1176,15 @@
       </c>
       <c r="N13" s="4">
         <f>J13+(($C13*J$26*2)/COUNT(F$5:F13))</f>
-        <v>7.8777777777777782</v>
+        <v>8.3111111111111118</v>
       </c>
       <c r="O13" s="4">
         <f>K13+(($C13*K$26*2)/COUNT(G$5:G13))</f>
-        <v>9.8555555555555561</v>
+        <v>10.022222222222222</v>
       </c>
       <c r="P13" s="4">
         <f>L13+(($C13*L$26*2)/COUNT(H$5:H13))</f>
-        <v>8.6333333333333346</v>
+        <v>8.9333333333333336</v>
       </c>
       <c r="T13">
         <f t="shared" si="0"/>
@@ -1172,7 +1211,7 @@
         <v>5.5555555555555554</v>
       </c>
     </row>
-    <row r="14" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C14">
         <v>13</v>
       </c>
@@ -1202,15 +1241,15 @@
       </c>
       <c r="N14" s="4">
         <f>J14+(($C14*J$26*2)/COUNT(F$5:F14))</f>
-        <v>7.6300000000000008</v>
+        <v>8.1933333333333334</v>
       </c>
       <c r="O14" s="4">
         <f>K14+(($C14*K$26*2)/COUNT(G$5:G14))</f>
-        <v>8.89</v>
+        <v>9.1066666666666674</v>
       </c>
       <c r="P14" s="4">
         <f>L14+(($C14*L$26*2)/COUNT(H$5:H14))</f>
-        <v>9.49</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="T14">
         <f t="shared" si="0"/>
@@ -1237,7 +1276,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C15">
         <v>17</v>
       </c>
@@ -1267,15 +1306,15 @@
       </c>
       <c r="N15" s="4">
         <f>J15+(($C15*J$26*2)/COUNT(F$5:F15))</f>
-        <v>8.4272727272727277</v>
+        <v>9.0969696969696976</v>
       </c>
       <c r="O15" s="4">
         <f>K15+(($C15*K$26*2)/COUNT(G$5:G15))</f>
-        <v>8.5545454545454547</v>
+        <v>8.8121212121212125</v>
       </c>
       <c r="P15" s="4">
         <f>L15+(($C15*L$26*2)/COUNT(H$5:H15))</f>
-        <v>9.1</v>
+        <v>9.5636363636363626</v>
       </c>
       <c r="T15">
         <f t="shared" si="0"/>
@@ -1302,7 +1341,7 @@
         <v>5.6363636363636367</v>
       </c>
     </row>
-    <row r="16" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C16">
         <v>21</v>
       </c>
@@ -1332,15 +1371,15 @@
       </c>
       <c r="N16" s="4">
         <f>J16+(($C16*J$26*2)/COUNT(F$5:F16))</f>
-        <v>8.091666666666665</v>
+        <v>8.85</v>
       </c>
       <c r="O16" s="4">
         <f>K16+(($C16*K$26*2)/COUNT(G$5:G16))</f>
-        <v>9.2750000000000004</v>
+        <v>9.5666666666666664</v>
       </c>
       <c r="P16" s="4">
         <f>L16+(($C16*L$26*2)/COUNT(H$5:H16))</f>
-        <v>8.7750000000000004</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="T16">
         <f t="shared" si="0"/>
@@ -1367,7 +1406,7 @@
         <v>5.333333333333333</v>
       </c>
     </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17">
         <v>21</v>
       </c>
@@ -1423,7 +1462,7 @@
         <v>5.6923076923076925</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18">
         <v>25</v>
       </c>
@@ -1453,15 +1492,15 @@
       </c>
       <c r="N18" s="4">
         <f>J18+(($C18*J$26*2)/COUNT(F$5:F18))</f>
-        <v>8.3928571428571423</v>
+        <v>9.1666666666666661</v>
       </c>
       <c r="O18" s="4">
         <f>K18+(($C18*K$26*2)/COUNT(G$5:G18))</f>
-        <v>8.3928571428571423</v>
+        <v>8.6904761904761898</v>
       </c>
       <c r="P18" s="4">
         <f>L18+(($C18*L$26*2)/COUNT(H$5:H18))</f>
-        <v>9.3928571428571423</v>
+        <v>9.9285714285714288</v>
       </c>
       <c r="T18">
         <f t="shared" si="0"/>
@@ -1488,7 +1527,7 @@
         <v>5.3571428571428568</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19">
         <v>25</v>
       </c>
@@ -1544,7 +1583,7 @@
         <v>5.2666666666666666</v>
       </c>
     </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20">
         <v>33</v>
       </c>
@@ -1574,15 +1613,15 @@
       </c>
       <c r="N20" s="4">
         <f>J20+(($C20*J$26*2)/COUNT(F$5:F20))</f>
-        <v>7.7687499999999998</v>
+        <v>8.6624999999999996</v>
       </c>
       <c r="O20" s="4">
         <f>K20+(($C20*K$26*2)/COUNT(G$5:G20))</f>
-        <v>7.8687500000000004</v>
+        <v>8.2125000000000004</v>
       </c>
       <c r="P20" s="4">
         <f>L20+(($C20*L$26*2)/COUNT(H$5:H20))</f>
-        <v>8.6187500000000004</v>
+        <v>9.2375000000000007</v>
       </c>
       <c r="T20">
         <f t="shared" si="0"/>
@@ -1609,7 +1648,7 @@
         <v>5.1875</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21">
         <v>37</v>
       </c>
@@ -1639,15 +1678,15 @@
       </c>
       <c r="N21" s="4">
         <f>J21+(($C21*J$26*2)/COUNT(F$5:F21))</f>
-        <v>8.1</v>
+        <v>9.0431372549019606</v>
       </c>
       <c r="O21" s="4">
         <f>K21+(($C21*K$26*2)/COUNT(G$5:G21))</f>
-        <v>8.7117647058823522</v>
+        <v>9.0745098039215684</v>
       </c>
       <c r="P21" s="4">
         <f>L21+(($C21*L$26*2)/COUNT(H$5:H21))</f>
-        <v>8.7117647058823522</v>
+        <v>9.3647058823529399</v>
       </c>
       <c r="T21">
         <f t="shared" si="0"/>
@@ -1674,12 +1713,12 @@
         <v>5.0588235294117645</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="J24" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
         <v>32</v>
       </c>
@@ -1702,7 +1741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
         <v>36</v>
       </c>
@@ -1716,19 +1755,19 @@
         <v>-2</v>
       </c>
       <c r="J26" s="3">
-        <f>AVERAGE(F26:F45)</f>
-        <v>-0.45</v>
+        <f>AVERAGE(F26:F55)</f>
+        <v>-0.23333333333333334</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" ref="K26:L26" si="3">AVERAGE(G26:G45)</f>
-        <v>-0.35</v>
+        <f>AVERAGE(G26:G55)</f>
+        <v>-0.26666666666666666</v>
       </c>
       <c r="L26" s="3">
-        <f>AVERAGE(H26:H45)</f>
-        <v>-0.35</v>
-      </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.25">
+        <f>AVERAGE(H26:H55)</f>
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
         <v>37</v>
       </c>
@@ -1742,7 +1781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
         <v>38</v>
       </c>
@@ -1756,7 +1795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
         <v>39</v>
       </c>
@@ -1770,7 +1809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
         <v>40</v>
       </c>
@@ -1784,7 +1823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
         <v>41</v>
       </c>
@@ -1798,7 +1837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
         <v>42</v>
       </c>
@@ -1812,7 +1851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
         <v>43</v>
       </c>
@@ -1826,7 +1865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
         <v>44</v>
       </c>
@@ -1840,7 +1879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
         <v>45</v>
       </c>
@@ -1854,7 +1893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
         <v>46</v>
       </c>
@@ -1868,7 +1907,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="37" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
         <v>47</v>
       </c>
@@ -1882,7 +1921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
         <v>48</v>
       </c>
@@ -1896,7 +1935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
         <v>49</v>
       </c>
@@ -1910,7 +1949,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="40" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
         <v>50</v>
       </c>
@@ -1924,12 +1963,12 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="41" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
         <v>51</v>
       </c>
       <c r="F41">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -1938,7 +1977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
         <v>52</v>
       </c>
@@ -1952,7 +1991,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
         <v>53</v>
       </c>
@@ -1966,7 +2005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
         <v>54</v>
       </c>
@@ -1980,7 +2019,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="45" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
         <v>55</v>
       </c>
@@ -1992,6 +2031,146 @@
       </c>
       <c r="H45">
         <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>62</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>63</v>
+      </c>
+      <c r="F47">
+        <v>-2</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>64</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>65</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>-1</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>66</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>-2</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>67</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="52" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>68</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>-1</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="54" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>70</v>
+      </c>
+      <c r="F54">
+        <v>-3</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>71</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>-2</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StatTable.xlsx
+++ b/Assets/StatTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProject\ShadowsOfHuntshire\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBB6269-9DDF-4923-AA6A-BB7544883C39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807D9C07-76CE-4FB3-996A-8D5B30FECDD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8F7BB208-E0CD-49C9-B2DA-F58E0459B174}"/>
+    <workbookView xWindow="3015" yWindow="1995" windowWidth="18330" windowHeight="12465" xr2:uid="{8F7BB208-E0CD-49C9-B2DA-F58E0459B174}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974DC328-D1FF-4833-BC5C-D56949842991}">
   <dimension ref="C3:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="16" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C16">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1332,15 +1332,15 @@
       </c>
       <c r="N16" s="4">
         <f>J16+(($C16*J$26*2)/COUNT(F$5:F16))</f>
-        <v>8.091666666666665</v>
+        <v>8.3166666666666664</v>
       </c>
       <c r="O16" s="4">
         <f>K16+(($C16*K$26*2)/COUNT(G$5:G16))</f>
-        <v>9.2750000000000004</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="P16" s="4">
         <f>L16+(($C16*L$26*2)/COUNT(H$5:H16))</f>
-        <v>8.7750000000000004</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="T16">
         <f t="shared" si="0"/>
@@ -1369,7 +1369,7 @@
     </row>
     <row r="17" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C17">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="18" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C18">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
@@ -1453,15 +1453,15 @@
       </c>
       <c r="N18" s="4">
         <f>J18+(($C18*J$26*2)/COUNT(F$5:F18))</f>
-        <v>8.3928571428571423</v>
+        <v>8.7142857142857135</v>
       </c>
       <c r="O18" s="4">
         <f>K18+(($C18*K$26*2)/COUNT(G$5:G18))</f>
-        <v>8.3928571428571423</v>
+        <v>8.6428571428571423</v>
       </c>
       <c r="P18" s="4">
         <f>L18+(($C18*L$26*2)/COUNT(H$5:H18))</f>
-        <v>9.3928571428571423</v>
+        <v>9.6428571428571423</v>
       </c>
       <c r="T18">
         <f t="shared" si="0"/>
@@ -1490,7 +1490,7 @@
     </row>
     <row r="19" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C19">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="20" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C20">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
@@ -1574,15 +1574,15 @@
       </c>
       <c r="N20" s="4">
         <f>J20+(($C20*J$26*2)/COUNT(F$5:F20))</f>
-        <v>7.7687499999999998</v>
+        <v>8.3312500000000007</v>
       </c>
       <c r="O20" s="4">
         <f>K20+(($C20*K$26*2)/COUNT(G$5:G20))</f>
-        <v>7.8687500000000004</v>
+        <v>8.3062500000000004</v>
       </c>
       <c r="P20" s="4">
         <f>L20+(($C20*L$26*2)/COUNT(H$5:H20))</f>
-        <v>8.6187500000000004</v>
+        <v>9.0562500000000004</v>
       </c>
       <c r="T20">
         <f t="shared" si="0"/>
@@ -1720,7 +1720,7 @@
         <v>-0.45</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" ref="K26:L26" si="3">AVERAGE(G26:G45)</f>
+        <f t="shared" ref="K26" si="3">AVERAGE(G26:G45)</f>
         <v>-0.35</v>
       </c>
       <c r="L26" s="3">
